--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>004025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>融通收益增强债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>671030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>西部利得事件驱动股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.63</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.71</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.84</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>29.87</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004025</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通收益增强债券A</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>20.10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,26 +806,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>671030</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得事件驱动股票</t>
+          <t>中融量化智选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +868,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +908,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>61.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.87</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -818,25 +936,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005521</t>
+          <t>010787</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安红利精选混合</t>
+          <t>华安优势企业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>61.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1690</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010008</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融成长优选混合A</t>
+          <t>华夏行业混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>24.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010009</t>
+          <t>005521</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融成长优选混合C</t>
+          <t>华安红利精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.30</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -912,15 +1060,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -930,26 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006649</t>
+          <t>010788</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安多因子混合C</t>
+          <t>华安优势企业混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1126,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1164,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010787</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安优势企业混合A</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010788</t>
+          <t>671030</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安优势企业混合C</t>
+          <t>西部利得事件驱动股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001261</t>
+          <t>006649</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融新机遇灵活配置混合</t>
+          <t>汇安多因子混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001282</t>
+          <t>010008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安新机遇灵活配置混合</t>
+          <t>中融成长优选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1098,25 +1316,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>001261</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏行业混合(LOF)</t>
+          <t>中融新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>671030</t>
+          <t>010009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>西部利得事件驱动股票</t>
+          <t>中融成长优选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>001282</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华安新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1427,4 +1428,1122 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2546,4 +2547,1920 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3536</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3923</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3201</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6426</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5701</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3408</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4463,4 +4464,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4472,7 +4473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4483,17 +4484,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4503,14 +4524,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.13</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6456</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4519,14 +4562,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.13</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4535,14 +4600,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.61</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4551,13 +4638,2049 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9528</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0811</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7962</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6579,7 +6580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6590,17 +6591,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6610,14 +6631,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.7</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6626,14 +6669,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.13</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6642,14 +6707,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.13</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6917</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6658,14 +6745,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.61</v>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6674,13 +6783,965 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6837</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5437</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7624,7 +7625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7635,17 +7636,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7655,14 +7676,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.15</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7671,14 +7714,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.7</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7687,14 +7752,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.13</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7703,14 +7790,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.13</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -7719,14 +7828,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.61</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7735,13 +7866,1245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9601</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>14.59</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>14.15</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>31.13</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>13.13</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>7.61</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -600,6 +617,1578 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000513</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>50.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013655</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014930</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国高端制造行业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +3534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +4578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5095,7 +6684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7011,7 +8600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8129,7 +9718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8717,7 +10306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300767-震安科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>14.59</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>14.15</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>31.13</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>13.13</v>
+        <v>31.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>7.61</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.83</v>
       </c>
     </row>
@@ -616,7 +633,1557 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2188,7 +3755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3534,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4578,7 +6145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6684,7 +8251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8600,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9718,7 +11285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10304,400 +11871,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160314</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4591</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1318</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1049</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>671030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0927</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001261</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001282</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>